--- a/covid-mts.xlsx
+++ b/covid-mts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XYZ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XYZ\Desktop\benchmark-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDE8092-83FC-41D7-9CCE-6A93729C10FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E40D1B-B978-4F79-ACA9-A91A0F53B4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="15400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-mts" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="91">
   <si>
     <t>max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,138 @@
   </si>
   <si>
     <t>oneliners</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfa-regex.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi-grams.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wf.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top-n.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set-diff.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort-sort.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shortest-scripts.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diff.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_2.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_2.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_3.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_3.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_3b.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_1.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_1_1.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_1_2.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_2.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_3.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_4.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_5.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_7.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_1.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_2.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.2_1.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.2_2.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.3_2.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.3_3.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_1.sh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -773,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96210D2A-FB18-4104-8CCC-CD47EBC8F99C}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1441,7 +1573,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G2" sqref="G2:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1465,7 +1597,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>126.51900000000001</v>
@@ -1497,103 +1629,103 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B3">
-        <v>13.343999999999999</v>
+        <v>66.082999999999998</v>
       </c>
       <c r="C3">
-        <v>13.35</v>
+        <v>65.885999999999996</v>
       </c>
       <c r="D3">
-        <v>13.353999999999999</v>
+        <v>67.415999999999997</v>
       </c>
       <c r="E3">
-        <v>13.327</v>
+        <v>65.692999999999998</v>
       </c>
       <c r="F3">
-        <v>13.275</v>
+        <v>65.992000000000004</v>
       </c>
       <c r="G3">
         <f>AVERAGE(B3:F3)</f>
-        <v>13.330000000000002</v>
+        <v>66.213999999999999</v>
       </c>
       <c r="H3">
         <f>MAX(B3:F3)</f>
-        <v>13.353999999999999</v>
+        <v>67.415999999999997</v>
       </c>
       <c r="I3">
         <f>MIN(B3:F3)</f>
-        <v>13.275</v>
+        <v>65.692999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>45.158000000000001</v>
+        <v>45.225000000000001</v>
       </c>
       <c r="C4">
-        <v>45.131</v>
+        <v>45.140999999999998</v>
       </c>
       <c r="D4">
-        <v>45.045000000000002</v>
+        <v>45.006</v>
       </c>
       <c r="E4">
-        <v>45.037999999999997</v>
+        <v>45.085999999999999</v>
       </c>
       <c r="F4">
-        <v>45.08</v>
+        <v>45.22</v>
       </c>
       <c r="G4">
         <f>AVERAGE(B4:F4)</f>
-        <v>45.090400000000002</v>
+        <v>45.135600000000004</v>
       </c>
       <c r="H4">
         <f>MAX(B4:F4)</f>
-        <v>45.158000000000001</v>
+        <v>45.225000000000001</v>
       </c>
       <c r="I4">
         <f>MIN(B4:F4)</f>
-        <v>45.037999999999997</v>
+        <v>45.006</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B5">
-        <v>45.225000000000001</v>
+        <v>45.158000000000001</v>
       </c>
       <c r="C5">
-        <v>45.140999999999998</v>
+        <v>45.131</v>
       </c>
       <c r="D5">
-        <v>45.006</v>
+        <v>45.045000000000002</v>
       </c>
       <c r="E5">
-        <v>45.085999999999999</v>
+        <v>45.037999999999997</v>
       </c>
       <c r="F5">
-        <v>45.22</v>
+        <v>45.08</v>
       </c>
       <c r="G5">
         <f>AVERAGE(B5:F5)</f>
-        <v>45.135600000000004</v>
+        <v>45.090400000000002</v>
       </c>
       <c r="H5">
         <f>MAX(B5:F5)</f>
-        <v>45.225000000000001</v>
+        <v>45.158000000000001</v>
       </c>
       <c r="I5">
         <f>MIN(B5:F5)</f>
-        <v>45.006</v>
+        <v>45.037999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>44.069000000000003</v>
@@ -1625,162 +1757,162 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B7">
-        <v>16.225999999999999</v>
+        <v>34.593000000000004</v>
       </c>
       <c r="C7">
-        <v>16.05</v>
+        <v>34.840000000000003</v>
       </c>
       <c r="D7">
-        <v>16.312000000000001</v>
+        <v>34.472000000000001</v>
       </c>
       <c r="E7">
-        <v>16.16</v>
+        <v>34.520000000000003</v>
       </c>
       <c r="F7">
-        <v>16.196000000000002</v>
+        <v>34.512999999999998</v>
       </c>
       <c r="G7">
         <f>AVERAGE(B7:F7)</f>
-        <v>16.188799999999997</v>
+        <v>34.587600000000002</v>
       </c>
       <c r="H7">
         <f>MAX(B7:F7)</f>
-        <v>16.312000000000001</v>
+        <v>34.840000000000003</v>
       </c>
       <c r="I7">
         <f>MIN(B7:F7)</f>
-        <v>16.05</v>
+        <v>34.472000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B8">
-        <v>66.082999999999998</v>
+        <v>19.576000000000001</v>
       </c>
       <c r="C8">
-        <v>65.885999999999996</v>
+        <v>19.437000000000001</v>
       </c>
       <c r="D8">
-        <v>67.415999999999997</v>
+        <v>19.521000000000001</v>
       </c>
       <c r="E8">
-        <v>65.692999999999998</v>
+        <v>19.475999999999999</v>
       </c>
       <c r="F8">
-        <v>65.992000000000004</v>
+        <v>19.436</v>
       </c>
       <c r="G8">
         <f>AVERAGE(B8:F8)</f>
-        <v>66.213999999999999</v>
+        <v>19.4892</v>
       </c>
       <c r="H8">
         <f>MAX(B8:F8)</f>
-        <v>67.415999999999997</v>
+        <v>19.576000000000001</v>
       </c>
       <c r="I8">
         <f>MIN(B8:F8)</f>
-        <v>65.692999999999998</v>
+        <v>19.436</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B9">
-        <v>34.593000000000004</v>
+        <v>18.045000000000002</v>
       </c>
       <c r="C9">
-        <v>34.840000000000003</v>
+        <v>17.946999999999999</v>
       </c>
       <c r="D9">
-        <v>34.472000000000001</v>
+        <v>18.006</v>
       </c>
       <c r="E9">
-        <v>34.520000000000003</v>
+        <v>18.03</v>
       </c>
       <c r="F9">
-        <v>34.512999999999998</v>
+        <v>17.995000000000001</v>
       </c>
       <c r="G9">
         <f>AVERAGE(B9:F9)</f>
-        <v>34.587600000000002</v>
+        <v>18.004600000000003</v>
       </c>
       <c r="H9">
         <f>MAX(B9:F9)</f>
-        <v>34.840000000000003</v>
+        <v>18.045000000000002</v>
       </c>
       <c r="I9">
         <f>MIN(B9:F9)</f>
-        <v>34.472000000000001</v>
+        <v>17.946999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B10">
-        <v>19.576000000000001</v>
+        <v>16.225999999999999</v>
       </c>
       <c r="C10">
-        <v>19.437000000000001</v>
+        <v>16.05</v>
       </c>
       <c r="D10">
-        <v>19.521000000000001</v>
+        <v>16.312000000000001</v>
       </c>
       <c r="E10">
-        <v>19.475999999999999</v>
+        <v>16.16</v>
       </c>
       <c r="F10">
-        <v>19.436</v>
+        <v>16.196000000000002</v>
       </c>
       <c r="G10">
         <f>AVERAGE(B10:F10)</f>
-        <v>19.4892</v>
+        <v>16.188799999999997</v>
       </c>
       <c r="H10">
         <f>MAX(B10:F10)</f>
-        <v>19.576000000000001</v>
+        <v>16.312000000000001</v>
       </c>
       <c r="I10">
         <f>MIN(B10:F10)</f>
-        <v>19.436</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B11">
-        <v>18.045000000000002</v>
+        <v>13.343999999999999</v>
       </c>
       <c r="C11">
-        <v>17.946999999999999</v>
+        <v>13.35</v>
       </c>
       <c r="D11">
-        <v>18.006</v>
+        <v>13.353999999999999</v>
       </c>
       <c r="E11">
-        <v>18.03</v>
+        <v>13.327</v>
       </c>
       <c r="F11">
-        <v>17.995000000000001</v>
+        <v>13.275</v>
       </c>
       <c r="G11">
         <f>AVERAGE(B11:F11)</f>
-        <v>18.004600000000003</v>
+        <v>13.330000000000002</v>
       </c>
       <c r="H11">
         <f>MAX(B11:F11)</f>
-        <v>18.045000000000002</v>
+        <v>13.353999999999999</v>
       </c>
       <c r="I11">
         <f>MIN(B11:F11)</f>
-        <v>17.946999999999999</v>
+        <v>13.275</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1802,6 +1934,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I11">
+    <sortCondition descending="1" ref="G2:G11"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2600,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074269B3-9F35-4B08-8F9D-6AB866209036}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2625,741 +2760,741 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B2">
-        <v>14.186999999999999</v>
+        <v>21.513999999999999</v>
       </c>
       <c r="C2">
-        <v>13.677</v>
+        <v>21.786999999999999</v>
       </c>
       <c r="D2">
-        <v>13.914</v>
+        <v>21.148</v>
       </c>
       <c r="E2">
-        <v>13.954000000000001</v>
+        <v>21.242000000000001</v>
       </c>
       <c r="F2">
-        <v>13.795999999999999</v>
+        <v>21.516999999999999</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G24" si="0">AVERAGE(B2:F2)</f>
-        <v>13.905599999999998</v>
+        <f>AVERAGE(B2:F2)</f>
+        <v>21.441600000000001</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H24" si="1">MAX(B2:F2)</f>
-        <v>14.186999999999999</v>
+        <f>MAX(B2:F2)</f>
+        <v>21.786999999999999</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I24" si="2">MIN(B2:F2)</f>
-        <v>13.677</v>
+        <f>MIN(B2:F2)</f>
+        <v>21.148</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B3">
-        <v>9.2110000000000003</v>
+        <v>20.027000000000001</v>
       </c>
       <c r="C3">
-        <v>9.36</v>
+        <v>19.75</v>
       </c>
       <c r="D3">
-        <v>9.5299999999999994</v>
+        <v>19.664000000000001</v>
       </c>
       <c r="E3">
-        <v>9.2759999999999998</v>
+        <v>20.05</v>
       </c>
       <c r="F3">
-        <v>9.6969999999999992</v>
+        <v>19.795999999999999</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>9.4147999999999996</v>
+        <f>AVERAGE(B3:F3)</f>
+        <v>19.857400000000002</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
-        <v>9.6969999999999992</v>
+        <f>MAX(B3:F3)</f>
+        <v>20.05</v>
       </c>
       <c r="I3">
-        <f t="shared" si="2"/>
-        <v>9.2110000000000003</v>
+        <f>MIN(B3:F3)</f>
+        <v>19.664000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B4">
-        <v>28.417999999999999</v>
+        <v>3.456</v>
       </c>
       <c r="C4">
-        <v>28.425000000000001</v>
+        <v>3.4649999999999999</v>
       </c>
       <c r="D4">
-        <v>29.131</v>
+        <v>3.4009999999999998</v>
       </c>
       <c r="E4">
-        <v>28.698</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="F4">
-        <v>29.001999999999999</v>
+        <v>3.3450000000000002</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>28.7348</v>
+        <f>AVERAGE(B4:F4)</f>
+        <v>3.407</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
-        <v>29.131</v>
+        <f>MAX(B4:F4)</f>
+        <v>3.4649999999999999</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
-        <v>28.417999999999999</v>
+        <f>MIN(B4:F4)</f>
+        <v>3.3450000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B5">
-        <v>30.960999999999999</v>
+        <v>22.577000000000002</v>
       </c>
       <c r="C5">
-        <v>31.59</v>
+        <v>22.940999999999999</v>
       </c>
       <c r="D5">
-        <v>31.521000000000001</v>
+        <v>22.577000000000002</v>
       </c>
       <c r="E5">
-        <v>31.273</v>
+        <v>22.98</v>
       </c>
       <c r="F5">
-        <v>31.748999999999999</v>
+        <v>23.533000000000001</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>31.418799999999997</v>
+        <f>AVERAGE(B5:F5)</f>
+        <v>22.921600000000002</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
-        <v>31.748999999999999</v>
+        <f>MAX(B5:F5)</f>
+        <v>23.533000000000001</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
-        <v>30.960999999999999</v>
+        <f>MIN(B5:F5)</f>
+        <v>22.577000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B6">
-        <v>29.963000000000001</v>
+        <v>24.143000000000001</v>
       </c>
       <c r="C6">
-        <v>31.123999999999999</v>
+        <v>24.366</v>
       </c>
       <c r="D6">
-        <v>30.460999999999999</v>
+        <v>24.25</v>
       </c>
       <c r="E6">
-        <v>30.617999999999999</v>
+        <v>24.073</v>
       </c>
       <c r="F6">
-        <v>30.559000000000001</v>
+        <v>24.155999999999999</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>30.544999999999998</v>
+        <f>AVERAGE(B6:F6)</f>
+        <v>24.197600000000001</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
-        <v>31.123999999999999</v>
+        <f>MAX(B6:F6)</f>
+        <v>24.366</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
-        <v>29.963000000000001</v>
+        <f>MIN(B6:F6)</f>
+        <v>24.073</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B7">
-        <v>45.207000000000001</v>
+        <v>30.588000000000001</v>
       </c>
       <c r="C7">
-        <v>44.956000000000003</v>
+        <v>30.08</v>
       </c>
       <c r="D7">
-        <v>44.204000000000001</v>
+        <v>30.44</v>
       </c>
       <c r="E7">
-        <v>44.024000000000001</v>
+        <v>30.524000000000001</v>
       </c>
       <c r="F7">
-        <v>44.633000000000003</v>
+        <v>30.218</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>44.604800000000004</v>
+        <f>AVERAGE(B7:F7)</f>
+        <v>30.369999999999997</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
-        <v>45.207000000000001</v>
+        <f>MAX(B7:F7)</f>
+        <v>30.588000000000001</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
-        <v>44.024000000000001</v>
+        <f>MIN(B7:F7)</f>
+        <v>30.08</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B8">
-        <v>17.18</v>
+        <v>29.963000000000001</v>
       </c>
       <c r="C8">
-        <v>16.981000000000002</v>
+        <v>31.123999999999999</v>
       </c>
       <c r="D8">
-        <v>16.821999999999999</v>
+        <v>30.460999999999999</v>
       </c>
       <c r="E8">
-        <v>16.788</v>
+        <v>30.617999999999999</v>
       </c>
       <c r="F8">
-        <v>16.867999999999999</v>
+        <v>30.559000000000001</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>16.927799999999998</v>
+        <f>AVERAGE(B8:F8)</f>
+        <v>30.544999999999998</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
-        <v>17.18</v>
+        <f>MAX(B8:F8)</f>
+        <v>31.123999999999999</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
-        <v>16.788</v>
+        <f>MIN(B8:F8)</f>
+        <v>29.963000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="B9">
-        <v>4.6719999999999997</v>
+        <v>33.701999999999998</v>
       </c>
       <c r="C9">
-        <v>4.8140000000000001</v>
+        <v>31.905000000000001</v>
       </c>
       <c r="D9">
-        <v>4.8140000000000001</v>
+        <v>32.151000000000003</v>
       </c>
       <c r="E9">
-        <v>4.7889999999999997</v>
+        <v>31.876000000000001</v>
       </c>
       <c r="F9">
-        <v>4.8109999999999999</v>
+        <v>33.473999999999997</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>4.7799999999999994</v>
+        <f>AVERAGE(B9:F9)</f>
+        <v>32.621600000000001</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
-        <v>4.8140000000000001</v>
+        <f>MAX(B9:F9)</f>
+        <v>33.701999999999998</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
-        <v>4.6719999999999997</v>
+        <f>MIN(B9:F9)</f>
+        <v>31.876000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="B10">
-        <v>33.701999999999998</v>
+        <v>4.3920000000000003</v>
       </c>
       <c r="C10">
-        <v>31.905000000000001</v>
+        <v>4.3890000000000002</v>
       </c>
       <c r="D10">
-        <v>32.151000000000003</v>
+        <v>4.4450000000000003</v>
       </c>
       <c r="E10">
-        <v>31.876000000000001</v>
+        <v>4.6929999999999996</v>
       </c>
       <c r="F10">
-        <v>33.473999999999997</v>
+        <v>4.3710000000000004</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>32.621600000000001</v>
+        <f>AVERAGE(B10:F10)</f>
+        <v>4.4580000000000002</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
-        <v>33.701999999999998</v>
+        <f>MAX(B10:F10)</f>
+        <v>4.6929999999999996</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
-        <v>31.876000000000001</v>
+        <f>MIN(B10:F10)</f>
+        <v>4.3710000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="B11">
-        <v>3.456</v>
+        <v>8.5239999999999991</v>
       </c>
       <c r="C11">
-        <v>3.4649999999999999</v>
+        <v>8.1530000000000005</v>
       </c>
       <c r="D11">
-        <v>3.4009999999999998</v>
+        <v>8.3230000000000004</v>
       </c>
       <c r="E11">
-        <v>3.3679999999999999</v>
+        <v>8.6679999999999993</v>
       </c>
       <c r="F11">
-        <v>3.3450000000000002</v>
+        <v>8.1280000000000001</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>3.407</v>
+        <f>AVERAGE(B11:F11)</f>
+        <v>8.3591999999999995</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
-        <v>3.4649999999999999</v>
+        <f>MAX(B11:F11)</f>
+        <v>8.6679999999999993</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
-        <v>3.3450000000000002</v>
+        <f>MIN(B11:F11)</f>
+        <v>8.1280000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="B12">
-        <v>21.513999999999999</v>
+        <v>20.812000000000001</v>
       </c>
       <c r="C12">
-        <v>21.786999999999999</v>
+        <v>20.864999999999998</v>
       </c>
       <c r="D12">
-        <v>21.148</v>
+        <v>20.701000000000001</v>
       </c>
       <c r="E12">
-        <v>21.242000000000001</v>
+        <v>21.029</v>
       </c>
       <c r="F12">
-        <v>21.516999999999999</v>
+        <v>20.608000000000001</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>21.441600000000001</v>
+        <f>AVERAGE(B12:F12)</f>
+        <v>20.803000000000001</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
-        <v>21.786999999999999</v>
+        <f>MAX(B12:F12)</f>
+        <v>21.029</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
-        <v>21.148</v>
-      </c>
-      <c r="J12" t="s">
-        <v>56</v>
+        <f>MIN(B12:F12)</f>
+        <v>20.608000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B13">
-        <v>27.937000000000001</v>
+        <v>28.417999999999999</v>
       </c>
       <c r="C13">
-        <v>27.210999999999999</v>
+        <v>28.425000000000001</v>
       </c>
       <c r="D13">
-        <v>26.960999999999999</v>
+        <v>29.131</v>
       </c>
       <c r="E13">
-        <v>26.934000000000001</v>
+        <v>28.698</v>
       </c>
       <c r="F13">
-        <v>26.896999999999998</v>
+        <v>29.001999999999999</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>27.187999999999999</v>
+        <f>AVERAGE(B13:F13)</f>
+        <v>28.7348</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
-        <v>27.937000000000001</v>
+        <f>MAX(B13:F13)</f>
+        <v>29.131</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
-        <v>26.896999999999998</v>
+        <f>MIN(B13:F13)</f>
+        <v>28.417999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B14">
-        <v>20.027000000000001</v>
+        <v>8.98</v>
       </c>
       <c r="C14">
-        <v>19.75</v>
+        <v>9.1280000000000001</v>
       </c>
       <c r="D14">
-        <v>19.664000000000001</v>
+        <v>9.0449999999999999</v>
       </c>
       <c r="E14">
-        <v>20.05</v>
+        <v>9.0779999999999994</v>
       </c>
       <c r="F14">
-        <v>19.795999999999999</v>
+        <v>8.8070000000000004</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>19.857400000000002</v>
+        <f>AVERAGE(B14:F14)</f>
+        <v>9.0076000000000001</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
-        <v>20.05</v>
+        <f>MAX(B14:F14)</f>
+        <v>9.1280000000000001</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
-        <v>19.664000000000001</v>
+        <f>MIN(B14:F14)</f>
+        <v>8.8070000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B15">
-        <v>22.577000000000002</v>
+        <v>14.186999999999999</v>
       </c>
       <c r="C15">
-        <v>22.940999999999999</v>
+        <v>13.677</v>
       </c>
       <c r="D15">
-        <v>22.577000000000002</v>
+        <v>13.914</v>
       </c>
       <c r="E15">
-        <v>22.98</v>
+        <v>13.954000000000001</v>
       </c>
       <c r="F15">
-        <v>23.533000000000001</v>
+        <v>13.795999999999999</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>22.921600000000002</v>
+        <f>AVERAGE(B15:F15)</f>
+        <v>13.905599999999998</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
-        <v>23.533000000000001</v>
+        <f>MAX(B15:F15)</f>
+        <v>14.186999999999999</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
-        <v>22.577000000000002</v>
+        <f>MIN(B15:F15)</f>
+        <v>13.677</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="B16">
-        <v>24.143000000000001</v>
+        <v>9.2110000000000003</v>
       </c>
       <c r="C16">
-        <v>24.366</v>
+        <v>9.36</v>
       </c>
       <c r="D16">
-        <v>24.25</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="E16">
-        <v>24.073</v>
+        <v>9.2759999999999998</v>
       </c>
       <c r="F16">
-        <v>24.155999999999999</v>
+        <v>9.6969999999999992</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>24.197600000000001</v>
+        <f>AVERAGE(B16:F16)</f>
+        <v>9.4147999999999996</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
-        <v>24.366</v>
+        <f>MAX(B16:F16)</f>
+        <v>9.6969999999999992</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
-        <v>24.073</v>
+        <f>MIN(B16:F16)</f>
+        <v>9.2110000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="B17">
-        <v>23.684999999999999</v>
+        <v>1.879</v>
       </c>
       <c r="C17">
-        <v>22.992999999999999</v>
+        <v>1.8839999999999999</v>
       </c>
       <c r="D17">
-        <v>23.196000000000002</v>
+        <v>1.98</v>
       </c>
       <c r="E17">
-        <v>23.609000000000002</v>
+        <v>1.978</v>
       </c>
       <c r="F17">
-        <v>23.39</v>
+        <v>1.9</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>23.374600000000001</v>
+        <f>AVERAGE(B17:F17)</f>
+        <v>1.9242000000000001</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
-        <v>23.684999999999999</v>
+        <f>MAX(B17:F17)</f>
+        <v>1.98</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
-        <v>22.992999999999999</v>
+        <f>MIN(B17:F17)</f>
+        <v>1.879</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="B18">
-        <v>30.588000000000001</v>
+        <v>4.6719999999999997</v>
       </c>
       <c r="C18">
-        <v>30.08</v>
+        <v>4.8140000000000001</v>
       </c>
       <c r="D18">
-        <v>30.44</v>
+        <v>4.8140000000000001</v>
       </c>
       <c r="E18">
-        <v>30.524000000000001</v>
+        <v>4.7889999999999997</v>
       </c>
       <c r="F18">
-        <v>30.218</v>
+        <v>4.8109999999999999</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>30.369999999999997</v>
+        <f>AVERAGE(B18:F18)</f>
+        <v>4.7799999999999994</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
-        <v>30.588000000000001</v>
+        <f>MAX(B18:F18)</f>
+        <v>4.8140000000000001</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
-        <v>30.08</v>
+        <f>MIN(B18:F18)</f>
+        <v>4.6719999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="B19">
-        <v>4.3920000000000003</v>
+        <v>17.18</v>
       </c>
       <c r="C19">
-        <v>4.3890000000000002</v>
+        <v>16.981000000000002</v>
       </c>
       <c r="D19">
-        <v>4.4450000000000003</v>
+        <v>16.821999999999999</v>
       </c>
       <c r="E19">
-        <v>4.6929999999999996</v>
+        <v>16.788</v>
       </c>
       <c r="F19">
-        <v>4.3710000000000004</v>
+        <v>16.867999999999999</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
-        <v>4.4580000000000002</v>
+        <f>AVERAGE(B19:F19)</f>
+        <v>16.927799999999998</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
-        <v>4.6929999999999996</v>
+        <f>MAX(B19:F19)</f>
+        <v>17.18</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
-        <v>4.3710000000000004</v>
+        <f>MIN(B19:F19)</f>
+        <v>16.788</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B20">
-        <v>8.5239999999999991</v>
+        <v>19.652000000000001</v>
       </c>
       <c r="C20">
-        <v>8.1530000000000005</v>
+        <v>19.5</v>
       </c>
       <c r="D20">
-        <v>8.3230000000000004</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="E20">
-        <v>8.6679999999999993</v>
+        <v>19.678999999999998</v>
       </c>
       <c r="F20">
-        <v>8.1280000000000001</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
-        <v>8.3591999999999995</v>
+        <f>AVERAGE(B20:F20)</f>
+        <v>19.676200000000001</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
-        <v>8.6679999999999993</v>
+        <f>MAX(B20:F20)</f>
+        <v>19.809999999999999</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
-        <v>8.1280000000000001</v>
+        <f>MIN(B20:F20)</f>
+        <v>19.5</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="B21">
-        <v>20.812000000000001</v>
+        <v>30.960999999999999</v>
       </c>
       <c r="C21">
-        <v>20.864999999999998</v>
+        <v>31.59</v>
       </c>
       <c r="D21">
-        <v>20.701000000000001</v>
+        <v>31.521000000000001</v>
       </c>
       <c r="E21">
-        <v>21.029</v>
+        <v>31.273</v>
       </c>
       <c r="F21">
-        <v>20.608000000000001</v>
+        <v>31.748999999999999</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
-        <v>20.803000000000001</v>
+        <f>AVERAGE(B21:F21)</f>
+        <v>31.418799999999997</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
-        <v>21.029</v>
+        <f>MAX(B21:F21)</f>
+        <v>31.748999999999999</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
-        <v>20.608000000000001</v>
+        <f>MIN(B21:F21)</f>
+        <v>30.960999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="B22">
-        <v>1.879</v>
+        <v>27.937000000000001</v>
       </c>
       <c r="C22">
-        <v>1.8839999999999999</v>
+        <v>27.210999999999999</v>
       </c>
       <c r="D22">
-        <v>1.98</v>
+        <v>26.960999999999999</v>
       </c>
       <c r="E22">
-        <v>1.978</v>
+        <v>26.934000000000001</v>
       </c>
       <c r="F22">
-        <v>1.9</v>
+        <v>26.896999999999998</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
-        <v>1.9242000000000001</v>
+        <f>AVERAGE(B22:F22)</f>
+        <v>27.187999999999999</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
-        <v>1.98</v>
+        <f>MAX(B22:F22)</f>
+        <v>27.937000000000001</v>
       </c>
       <c r="I22">
-        <f t="shared" si="2"/>
-        <v>1.879</v>
+        <f>MIN(B22:F22)</f>
+        <v>26.896999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="B23">
-        <v>19.652000000000001</v>
+        <v>45.207000000000001</v>
       </c>
       <c r="C23">
-        <v>19.5</v>
+        <v>44.956000000000003</v>
       </c>
       <c r="D23">
-        <v>19.809999999999999</v>
+        <v>44.204000000000001</v>
       </c>
       <c r="E23">
-        <v>19.678999999999998</v>
+        <v>44.024000000000001</v>
       </c>
       <c r="F23">
-        <v>19.739999999999998</v>
+        <v>44.633000000000003</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
-        <v>19.676200000000001</v>
+        <f>AVERAGE(B23:F23)</f>
+        <v>44.604800000000004</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
-        <v>19.809999999999999</v>
+        <f>MAX(B23:F23)</f>
+        <v>45.207000000000001</v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
-        <v>19.5</v>
+        <f>MIN(B23:F23)</f>
+        <v>44.024000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="B24">
-        <v>8.98</v>
+        <v>23.684999999999999</v>
       </c>
       <c r="C24">
-        <v>9.1280000000000001</v>
+        <v>22.992999999999999</v>
       </c>
       <c r="D24">
-        <v>9.0449999999999999</v>
+        <v>23.196000000000002</v>
       </c>
       <c r="E24">
-        <v>9.0779999999999994</v>
+        <v>23.609000000000002</v>
       </c>
       <c r="F24">
-        <v>8.8070000000000004</v>
+        <v>23.39</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
-        <v>9.0076000000000001</v>
+        <f>AVERAGE(B24:F24)</f>
+        <v>23.374600000000001</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
-        <v>9.1280000000000001</v>
+        <f>MAX(B24:F24)</f>
+        <v>23.684999999999999</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
-        <v>8.8070000000000004</v>
+        <f>MIN(B24:F24)</f>
+        <v>22.992999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -3381,6 +3516,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J24">
+    <sortCondition ref="A2:A24"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
